--- a/Book_Problems/Problem 1.4/Book-1.4 automobile manufacturer.xlsx
+++ b/Book_Problems/Problem 1.4/Book-1.4 automobile manufacturer.xlsx
@@ -5,51 +5,84 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/student/Documents/UNI/2022 Fall/Business Optimization/AMPL models/TA sessions/Book Problems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/student/Documents/UNI/2022 Fall/Business Optimization/AMPL models/TA sessions/Book Problems/Book 1.4/C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BBAAC0D-4476-0542-8514-E7A2D25FBFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA69B49-AA9C-B346-AC2C-7DFF0F6605A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="2100" windowWidth="28040" windowHeight="17440" xr2:uid="{C52A54AC-D86C-4E49-A78B-AEA67F69069B}"/>
+    <workbookView xWindow="2540" yWindow="2100" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{C52A54AC-D86C-4E49-A78B-AEA67F69069B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1.4C" sheetId="1" r:id="rId1"/>
+    <sheet name="1.4D" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$H$2:$H$4</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'1.4C'!$H$2:$H$4</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'1.4D'!$G$2:$G$4</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$H$2:$H$4</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$J$5</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'1.4C'!$H$2:$H$4</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'1.4D'!$G$2:$G$4</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'1.4C'!$J$5</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'1.4D'!$I$5</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$I$5</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'1.4C'!$I$5</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'1.4D'!$G$5</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$E$2:$E$4</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$F$5</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'1.4C'!$E$2:$E$4</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'1.4D'!$D$2:$D$4</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'1.4C'!$F$5</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'1.4D'!$E$5</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Car</t>
   </si>
@@ -465,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29686E08-112A-D241-B967-03C868D4F061}">
   <dimension ref="B1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="173" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,7 +606,7 @@
         <v>10500</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J3:J4" si="1">H4*C4</f>
+        <f t="shared" ref="J4" si="1">H4*C4</f>
         <v>45</v>
       </c>
     </row>
@@ -588,6 +621,145 @@
       <c r="J5">
         <f>SUM(J2:J4)</f>
         <v>119.9999988146804</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2C50C9-0C18-0242-953B-95B711D23ED4}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>34.999999442509001</v>
+      </c>
+      <c r="H2">
+        <f>G2*C2</f>
+        <v>6999.9998885018003</v>
+      </c>
+      <c r="I2">
+        <f>G2*B2</f>
+        <v>34.999999442509001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="0">G3*C3</f>
+        <v>10000</v>
+      </c>
+      <c r="I3">
+        <f>G3*B3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>700</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>10500</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4" si="1">G4*B4</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>120</v>
+      </c>
+      <c r="G5">
+        <f>SUM(G2:G4)</f>
+        <v>69.999999442508994</v>
+      </c>
+      <c r="H5">
+        <f>SUM(H2:H4)</f>
+        <v>27499.999888501799</v>
+      </c>
+      <c r="I5">
+        <f>SUM(I2:I4)</f>
+        <v>119.99999944250899</v>
       </c>
     </row>
   </sheetData>
